--- a/sample-data/exams wjec cbac 2018.xlsx
+++ b/sample-data/exams wjec cbac 2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516F030-1B57-A047-ACDA-072B529DA3B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="19200" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WJEC CBAC 2018" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WJEC CBAC 2018'!$A$1:$L$189</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="599">
   <si>
     <t>Date</t>
   </si>
@@ -289,13 +295,1600 @@
   </si>
   <si>
     <t>http://www.cbac.co.uk/exam-officers/entries/Examination_Timetable_2018_WELSH_1912_Update.pdf?language_id=2</t>
+  </si>
+  <si>
+    <t>French Unit 2 Listening Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>French Unit 2 Listening Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>French Unit 3 Reading Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>French Component 2 Listening Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>French Component 2 Listening Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>French Component 3 Reading Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>French Component 3 Reading Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Biology Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Biology 2 (Double Award) Unit 4 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Biology Unit 2 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Biology 2 (Double Award) Unit 4 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Double Award) Unit 3 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Double Award) Unit 3 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Single Award) Unit 2
+Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Single Award) Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Biology Component 1 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Biology Component 1 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Combined Science Biology Component 1 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Combined Science Biology Component 1 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>3800U20-1</t>
+  </si>
+  <si>
+    <t>3800UB0-1</t>
+  </si>
+  <si>
+    <t>3800U30-1</t>
+  </si>
+  <si>
+    <t>3800UC0-1</t>
+  </si>
+  <si>
+    <t>C800U20-1</t>
+  </si>
+  <si>
+    <t>C800UB0-1</t>
+  </si>
+  <si>
+    <t>C800U30-1</t>
+  </si>
+  <si>
+    <t>C800UC0-1</t>
+  </si>
+  <si>
+    <t>3400U20-1</t>
+  </si>
+  <si>
+    <t>3400UB0-1</t>
+  </si>
+  <si>
+    <t>3430U40-1</t>
+  </si>
+  <si>
+    <t>3430UD0-1</t>
+  </si>
+  <si>
+    <t>3445U30-1</t>
+  </si>
+  <si>
+    <t>3445UC0-1</t>
+  </si>
+  <si>
+    <t>3440U20-1</t>
+  </si>
+  <si>
+    <t>3440UB0-1</t>
+  </si>
+  <si>
+    <t>C400U10-1</t>
+  </si>
+  <si>
+    <t>C400UA0-1</t>
+  </si>
+  <si>
+    <t>C430U10-1</t>
+  </si>
+  <si>
+    <t>C430UA0-1</t>
+  </si>
+  <si>
+    <t>French Unit 3 Reading Higher Tier
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Applied Science</t>
+  </si>
+  <si>
+    <t>Combined Science</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>2h 15m</t>
+  </si>
+  <si>
+    <t>Physical Education (Full Course) Unit 1 (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Physical Education (Short Course) Unit 1 (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Physical Education (Full Course) Component 1 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Physical Education (Short Course) Component 1
+(NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Religious Studies (Spec B) Unit 1 Rel. &amp; Life Issues*
+(LEGACY)</t>
+  </si>
+  <si>
+    <t>Religious Studies (Spec A) Unit 6 Hinduism*
+(LEGACY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious Studies (Spec A) Unit 7 Islam*
+(LEGACY) </t>
+  </si>
+  <si>
+    <t>Religious Studies (Full Course) Route A
+Component 2 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious Studies (Full Course) Route B
+Component 2 (NEW EDUQAS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious Studies (Short Course) Component 2
+(NEW EDUQAS) </t>
+  </si>
+  <si>
+    <t>3550U10-1</t>
+  </si>
+  <si>
+    <t>3555U10-1</t>
+  </si>
+  <si>
+    <t>C550U10-1</t>
+  </si>
+  <si>
+    <t>C555U10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4451/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4446/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4447/01 </t>
+  </si>
+  <si>
+    <t>C120U20-1</t>
+  </si>
+  <si>
+    <t>C120U90-1</t>
+  </si>
+  <si>
+    <t>C125U20-1</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>Chemistry Unit 2 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Chemistry Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Chemistry 2 (Double Award) Unit 5 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Chemistry 2 (Double Award) Unit 5 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Chemistry Component 1 Foundation Tier
+(NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemistry Component 1 Higher Tier
+(NEW EDUQAS) </t>
+  </si>
+  <si>
+    <t>Combined Science Chemistry Component 2
+Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Combined Science Chemistry Component 2
+Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science Unit 2 (LEGACY) * </t>
+  </si>
+  <si>
+    <t>Computer Science Component 2 (on screen) (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>ICT Unit 3</t>
+  </si>
+  <si>
+    <t>Latin Component 2 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>3410U20-1</t>
+  </si>
+  <si>
+    <t>3410UB0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430U50-1 </t>
+  </si>
+  <si>
+    <t>3430UE0-1</t>
+  </si>
+  <si>
+    <t>C410U10-1</t>
+  </si>
+  <si>
+    <t>C410UA0-1</t>
+  </si>
+  <si>
+    <t>C430U20-1</t>
+  </si>
+  <si>
+    <t>C430UB0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4342/01 </t>
+  </si>
+  <si>
+    <t>C500U20-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4333/01 </t>
+  </si>
+  <si>
+    <t>C990U20-1</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>French Unit 4 Writing Foundation Tier
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Unit 4 Writing Higher Tier
+(NEW WALES) </t>
+  </si>
+  <si>
+    <t>French Component 4 Writing Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>French Component 4 Writing Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Drama Unit 3 (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Drama Component 3 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Geology (on screen)</t>
+  </si>
+  <si>
+    <t>Latin Component 3 Option A (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Latin Component 3 Option B (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Sociology Unit 1</t>
+  </si>
+  <si>
+    <t>Welsh Literature Unit 2 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Welsh Literature Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisure &amp; Tourism Unit 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">English Literature Unit 1 Foundation Tier
+(NEW WALES) </t>
+  </si>
+  <si>
+    <t>English Literature Unit 1 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>English Literature Component 1 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography Unit 1 (NEW WALES) </t>
+  </si>
+  <si>
+    <t>Geography A Component 1 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Geography B Component 1 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Geology</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Leisure &amp; Tourism</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>3800U40-1</t>
+  </si>
+  <si>
+    <t>3800UD0-1</t>
+  </si>
+  <si>
+    <t>C800U40-1</t>
+  </si>
+  <si>
+    <t>C800UD0-1</t>
+  </si>
+  <si>
+    <t>3690U30-1</t>
+  </si>
+  <si>
+    <t>C690U30-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4250/01 </t>
+  </si>
+  <si>
+    <t>C990UA0-1</t>
+  </si>
+  <si>
+    <t>C990UB0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4511/01 </t>
+  </si>
+  <si>
+    <t>4762/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3010N20-1 </t>
+  </si>
+  <si>
+    <t>3010NB0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3720U10-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3720UA0-1 </t>
+  </si>
+  <si>
+    <t>C720U10-1</t>
+  </si>
+  <si>
+    <t>3110U10-1</t>
+  </si>
+  <si>
+    <t>C111U10-1</t>
+  </si>
+  <si>
+    <t>C112U10-1</t>
+  </si>
+  <si>
+    <t>1h15m</t>
+  </si>
+  <si>
+    <t>2h 5m</t>
+  </si>
+  <si>
+    <t>GCSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied Business Unit 2 </t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Graphics Unit 1</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Product Design Unit 1</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Resistant Materials Unit 1</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Systems &amp; Control Unit 1</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Textiles Unit 1</t>
+  </si>
+  <si>
+    <t>Psychology Unit 1</t>
+  </si>
+  <si>
+    <t>Physics Unit 2 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Physics Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Physics 2 (Double Award) Unit 6 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Physics 2 (Double Award) Unit 6 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Physics Component 1 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Physics Component 1 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Combined Science Physics Component 3
+Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined Science Physics Component 3
+Higher Tier (NEW EDUQAS) </t>
+  </si>
+  <si>
+    <t>4702/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4101/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4141/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4111/01 </t>
+  </si>
+  <si>
+    <t>4121/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4131/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4431/01 </t>
+  </si>
+  <si>
+    <t>3420U20-1</t>
+  </si>
+  <si>
+    <t>3420UB0-1</t>
+  </si>
+  <si>
+    <t>3430U60-1</t>
+  </si>
+  <si>
+    <t>3430UF0-1</t>
+  </si>
+  <si>
+    <t>C420U10-1</t>
+  </si>
+  <si>
+    <t>C420UA0-1</t>
+  </si>
+  <si>
+    <t>C430U30-1</t>
+  </si>
+  <si>
+    <t>C430UC0-1</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Applied Business</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Graphics</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Product Design</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Resistant Materials</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Systems &amp; Control</t>
+  </si>
+  <si>
+    <t>Design &amp;Technology Textiles</t>
+  </si>
+  <si>
+    <t>3300U10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3300U30-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3300U50-1 </t>
+  </si>
+  <si>
+    <t>C300U10-1</t>
+  </si>
+  <si>
+    <t>C300UA0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4452/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4444/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4445/01 </t>
+  </si>
+  <si>
+    <t>C120U30-1-C120U70-1</t>
+  </si>
+  <si>
+    <t>C120U60-1</t>
+  </si>
+  <si>
+    <t>C125U30-1-
+C125U70-1</t>
+  </si>
+  <si>
+    <t>Mathematics Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Mathematics Unit 1 Intermediate Tier
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t>Mathematics Unit 1 Higher Tier
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t>Mathematics Component 1 Foundation Tier
+(NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Mathematics Component 1 Higher Tier
+(NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious Studies (Spec B) Unit 2 Rel. &amp; Hum. Exp. *
+(LEGACY) </t>
+  </si>
+  <si>
+    <t>Religious Studies (Spec A) Unit 4 Catholicism 2*
+(LEGACY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious Studies (Spec A) Unit 5 Christ. Phil.&amp;Eth. *
+(LEGACY) </t>
+  </si>
+  <si>
+    <t>Religious Studies (Full Course) Route A
+Component 3 Options 1-5 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Religious Studies (Full Course) Route B
+Component 3 Option 4 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Religious Studies (Short Course)
+Component 3 Options 1-5 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>English Literature Unit 2 Option A Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>English Literature Unit 2 Option B Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>English Literature Unit 2 Option A Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>English Literature Unit 2 Option B Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>English Literature Component 2 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Leisure &amp; Tourism Unit 4</t>
+  </si>
+  <si>
+    <t>Sociology Unit 2</t>
+  </si>
+  <si>
+    <t>History Unit 1* (LEGACY)</t>
+  </si>
+  <si>
+    <t>History Component 1 (Studies A to H) (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Media Studies Unit 1</t>
+  </si>
+  <si>
+    <t>Psychology Unit 2</t>
+  </si>
+  <si>
+    <t>English Language Unit 2 (NEW WALES)</t>
+  </si>
+  <si>
+    <t>English Language Component 1 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Geography Unit 2 (NEW WALES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography A Component 2 (NEW EDUQAS) </t>
+  </si>
+  <si>
+    <t>Geography B Component 2 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>3720U20-1</t>
+  </si>
+  <si>
+    <t>3720U30-1</t>
+  </si>
+  <si>
+    <t>3720UB0-1</t>
+  </si>
+  <si>
+    <t>3720UC0-1</t>
+  </si>
+  <si>
+    <t>C720U20-1</t>
+  </si>
+  <si>
+    <t>4512/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4764/01 </t>
+  </si>
+  <si>
+    <t>C100UA0-1-
+C100UH0-1</t>
+  </si>
+  <si>
+    <t>4271/01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4391/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4432/01 </t>
+  </si>
+  <si>
+    <t>3700U20-1</t>
+  </si>
+  <si>
+    <t>3110U20-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C700U10-1 </t>
+  </si>
+  <si>
+    <t>C111U20-1</t>
+  </si>
+  <si>
+    <t>C112U20-1</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Media Studies</t>
+  </si>
+  <si>
+    <t>English Language</t>
+  </si>
+  <si>
+    <t>2h 30m</t>
+  </si>
+  <si>
+    <t>3810U20-1</t>
+  </si>
+  <si>
+    <t>3810UB0-1</t>
+  </si>
+  <si>
+    <t>3810U30-1</t>
+  </si>
+  <si>
+    <t>3810UC0-1</t>
+  </si>
+  <si>
+    <t>C810U20-1</t>
+  </si>
+  <si>
+    <t>C810UB0-1</t>
+  </si>
+  <si>
+    <t>C810U30-1</t>
+  </si>
+  <si>
+    <t>C810UC0-1</t>
+  </si>
+  <si>
+    <t>4080/01</t>
+  </si>
+  <si>
+    <t>3660U30-1</t>
+  </si>
+  <si>
+    <t>C660U30-1</t>
+  </si>
+  <si>
+    <t>Mathematics Unit 2 Foundation Tier
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t>3300U20-1</t>
+  </si>
+  <si>
+    <t>3300U40-1</t>
+  </si>
+  <si>
+    <t>3300U60-1</t>
+  </si>
+  <si>
+    <t>C300U20-1</t>
+  </si>
+  <si>
+    <t>C300UB0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4704/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4442/01 </t>
+  </si>
+  <si>
+    <t>Spanish Unit 2 Listening Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Spanish Unit 2 Listening Higher Tier
+(NEW WALES</t>
+  </si>
+  <si>
+    <t>Spanish Unit 3 Reading Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Spanish Unit 3 Reading Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Spanish Component 2 Listening Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Spanish Component 2 Listening Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Spanish Component 3 Reading Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Spanish Component 3 Reading Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>Music Unit 3 (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Music Component 3 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Religious Studies (Spec A) Unit 2 Christianity through the Gospels* (LEGACY)</t>
+  </si>
+  <si>
+    <t>Applied Business Unit 4</t>
+  </si>
+  <si>
+    <t>Mathematics Component 2 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Mathematics Component 2 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Mathematics Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Mathematics Unit 2 Intermediate Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English Language Unit 3 (NEW WALES) </t>
+  </si>
+  <si>
+    <t>English Language Component 2 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>History Unit 2* (LEGACY)</t>
+  </si>
+  <si>
+    <t>History Component 2 (Studies A to H) (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Biology Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Biology Unit 1 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Biology 1 (Double Award) Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Biology 1 (Double Award) Unit 1 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Double Award) Unit 2 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Double Award) Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Single Award) Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Single Award) Unit 1 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Biology Component 2 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Biology Component 2 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Combined Science Component 4 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Combined Science Component 4 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Geography A Component 3 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Geography B Component 3 (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3700U30-1 </t>
+  </si>
+  <si>
+    <t>C700U20-1</t>
+  </si>
+  <si>
+    <t>3400U10-1</t>
+  </si>
+  <si>
+    <t>3400UA0-1</t>
+  </si>
+  <si>
+    <t>3430U10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430UA0-1 </t>
+  </si>
+  <si>
+    <t>3445U20-1</t>
+  </si>
+  <si>
+    <t>3445UB0-1</t>
+  </si>
+  <si>
+    <t>3440U10-1</t>
+  </si>
+  <si>
+    <t>3440UA0-1</t>
+  </si>
+  <si>
+    <t>C400U20-1</t>
+  </si>
+  <si>
+    <t>C400UB0-1</t>
+  </si>
+  <si>
+    <t>C430U40-1</t>
+  </si>
+  <si>
+    <t>C111U30-1</t>
+  </si>
+  <si>
+    <t>C112U30-1</t>
+  </si>
+  <si>
+    <t>4272/01-05
+4282/01-02</t>
+  </si>
+  <si>
+    <t>C100U10-1-
+C100U80-1</t>
+  </si>
+  <si>
+    <t>History Unit 3* (LEGACY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4373/01-04
+4383/01-02 </t>
+  </si>
+  <si>
+    <t>3100UE0-1-
+3100UH0-1</t>
+  </si>
+  <si>
+    <t>History Unit 2 (Studies A to D)
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t>Chemistry Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Chemistry 1 (Double Award) Unit 2 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Science: Chemistry 1 (Double Award) Unit 2 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Double Award) Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Applied Science (Double Award) Unit 1 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Chemistry Component 2 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Chemistry Component 2 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Electronics Test E1 (on screen)</t>
+  </si>
+  <si>
+    <t>Health &amp; Social Care Unit 2</t>
+  </si>
+  <si>
+    <t>3410UA0-1</t>
+  </si>
+  <si>
+    <t>3410U10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430U20-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430UB0-1 </t>
+  </si>
+  <si>
+    <t>3445U10-1</t>
+  </si>
+  <si>
+    <t>3445UA0-1</t>
+  </si>
+  <si>
+    <t>C410U20-1</t>
+  </si>
+  <si>
+    <t>C410UB0-1</t>
+  </si>
+  <si>
+    <t>4161/01</t>
+  </si>
+  <si>
+    <t>4722/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemistry Unit 1 Higher Tier (NEW WALES) </t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Health &amp; Social Care</t>
+  </si>
+  <si>
+    <t>0155/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4291/01 </t>
+  </si>
+  <si>
+    <t>3810U40-1</t>
+  </si>
+  <si>
+    <t>3810UD0-1</t>
+  </si>
+  <si>
+    <t>C810U40-1</t>
+  </si>
+  <si>
+    <t>C810UD0-1</t>
+  </si>
+  <si>
+    <t>3560UA0-1</t>
+  </si>
+  <si>
+    <t>3560UB0-1</t>
+  </si>
+  <si>
+    <t>C560UA0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4732/01 </t>
+  </si>
+  <si>
+    <t>C560UB0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3420U10-1 </t>
+  </si>
+  <si>
+    <t>3420UA0-1</t>
+  </si>
+  <si>
+    <t>3430U30-1</t>
+  </si>
+  <si>
+    <t>3430UC0-1</t>
+  </si>
+  <si>
+    <t>C420U20-1</t>
+  </si>
+  <si>
+    <t>C420UB0-1</t>
+  </si>
+  <si>
+    <t>4162/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4448/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film Studies Paper 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Economics Child Development Unit 1 </t>
+  </si>
+  <si>
+    <t>Spanish Unit 4 Writing Foundation Tier
+(NEW WALES)</t>
+  </si>
+  <si>
+    <t>Spanish Unit 4 Writing Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Spanish Component 4 Writing Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Spanish Component 4 Writing Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Food and Nutrition Unit 1 (Written) (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Food and Nutrition Unit 1 (On-screen) (NEW WALES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Preparation and Nutrition Component 1
+(Written) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Preparation and Nutrition Component 1
+(On-screen) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Please note that re-sit examinations will be withdrawn from the timetable if there is insufficient demand </t>
+  </si>
+  <si>
+    <t>Physics Unit 1 Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Physics Unit 1 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science: Physics 1 (Double Award) Unit 3
+Foundation Tier (NEW WALES) </t>
+  </si>
+  <si>
+    <t>Science: Physics 1 (Double Award) Unit 3 Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>Physics Component 2 Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Physics Component 2 Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>Electronics Test E2 (on screen)</t>
+  </si>
+  <si>
+    <t>Religious Studies (Spec A) Unit 8 Judaism* (LEGACY)</t>
+  </si>
+  <si>
+    <t>Hospitality &amp; Catering</t>
+  </si>
+  <si>
+    <t>Hospitality &amp; Catering+G188 Unit 2
+(LEGACY) RESIT ONLY**</t>
+  </si>
+  <si>
+    <t>Food Preparation and Nutrition</t>
+  </si>
+  <si>
+    <t>Food and Nutrition</t>
+  </si>
+  <si>
+    <t>Home Economics</t>
+  </si>
+  <si>
+    <t>Film Studies</t>
+  </si>
+  <si>
+    <t>*NB For centres in England - this is only available for resit candidates</t>
+  </si>
+  <si>
+    <t>3820U20-1</t>
+  </si>
+  <si>
+    <t>3820UB0-1</t>
+  </si>
+  <si>
+    <t>3820U30-1</t>
+  </si>
+  <si>
+    <t>3820UC0-1</t>
+  </si>
+  <si>
+    <t>C820U20-1</t>
+  </si>
+  <si>
+    <t>C820UB0-1</t>
+  </si>
+  <si>
+    <t>C820U30-1</t>
+  </si>
+  <si>
+    <t>C820UC0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4742/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4723/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4311/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0155/02 </t>
+  </si>
+  <si>
+    <t>German Unit 4 Writing Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>German Unit 4 Writing Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>German Component 4 Writing Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>German Component 4 Writing Higher Tier
+(NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>3820U40-1</t>
+  </si>
+  <si>
+    <t>3820UD0-1</t>
+  </si>
+  <si>
+    <t>C820U40-1</t>
+  </si>
+  <si>
+    <t>C820UD0-1</t>
+  </si>
+  <si>
+    <t>Film Studies Paper 2</t>
+  </si>
+  <si>
+    <t>Home Economics Textiles Unit 1</t>
+  </si>
+  <si>
+    <t>Health &amp; Social Care Unit 3</t>
+  </si>
+  <si>
+    <t>Hospitality &amp; Catering Unit 4 (LEGACY)</t>
+  </si>
+  <si>
+    <t>German Unit 2 Listening Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>German Unit 2 Listening Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>German Unit 3 Reading Foundation Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>German Unit 3 Reading Higher Tier (NEW WALES)</t>
+  </si>
+  <si>
+    <t>German Component 2 Listening Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>German Component 2 Listening Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>German Component 3 Reading Foundation Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>German Component 3 Reading Higher Tier (NEW EDUQAS)</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>0700/01</t>
+  </si>
+  <si>
+    <t>0730/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0740/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0736/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The Controlled Task in English, which is an alternative to the examination, should be conducted during the period 3 January to 12 March 2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">English (LEGACY)* </t>
+  </si>
+  <si>
+    <t>Science (Single Award) (LEGACY)</t>
+  </si>
+  <si>
+    <t>Mathematics (LEGACY)</t>
+  </si>
+  <si>
+    <t>Mathematics – Numeracy Unit 1 (NEW)</t>
+  </si>
+  <si>
+    <t>Science Unit 1 (NEW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English Component 1 (NEW) </t>
+  </si>
+  <si>
+    <t>6430QCL-1</t>
+  </si>
+  <si>
+    <t>6300QCL-1</t>
+  </si>
+  <si>
+    <t>6700QCL-1</t>
+  </si>
+  <si>
+    <t>Entry Level Certificate</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Mathematics - Numeracy</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>Level 1/2 General</t>
+  </si>
+  <si>
+    <t>9511/01</t>
+  </si>
+  <si>
+    <t>9521/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9521/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9514/01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9524/01 </t>
+  </si>
+  <si>
+    <t>9512/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9522/01 </t>
+  </si>
+  <si>
+    <t>9550/01</t>
+  </si>
+  <si>
+    <t>Core Latin Language – Level 1</t>
+  </si>
+  <si>
+    <t>Core Latin Language – Level 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Latin Language – Level 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Latin Language – Level 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Latin Language - Level 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Latin Language - Level 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman Civilisation Topics – Level 1 </t>
+  </si>
+  <si>
+    <t>Roman Civilisation Topics – Level 2</t>
+  </si>
+  <si>
+    <t>Additional Mathematics – Level 2</t>
+  </si>
+  <si>
+    <t>Additional Mathematics</t>
+  </si>
+  <si>
+    <t>Roman Civilisation</t>
+  </si>
+  <si>
+    <t>Additional Latin</t>
+  </si>
+  <si>
+    <t>Core Latin</t>
+  </si>
+  <si>
+    <t>Level 1/2 Vocational</t>
+  </si>
+  <si>
+    <t>Applied Science RESIT ONLY</t>
+  </si>
+  <si>
+    <t>Creative Media - Creating a Proposal in Response to
+a Brief</t>
+  </si>
+  <si>
+    <t>Engineering - Solving Engineering Problems</t>
+  </si>
+  <si>
+    <t>Constructing the Built Environment Safety and Security in Construction</t>
+  </si>
+  <si>
+    <t>Event Operations - The Events Industry</t>
+  </si>
+  <si>
+    <t>Retail Business - Retail Business</t>
+  </si>
+  <si>
+    <t>Tourism - The Business of Tourism</t>
+  </si>
+  <si>
+    <t>Hospitality &amp; Catering Spec A – Unit 1 The Hospitality &amp; Catering Industry (on screen)</t>
+  </si>
+  <si>
+    <t>Hospitality &amp; Catering Spec A – Unit 1 The Hospitality &amp; Catering Industry (on paper)</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Retail Business</t>
+  </si>
+  <si>
+    <t>Event Operations</t>
+  </si>
+  <si>
+    <t>Constructing the Built Environment</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Creative Media</t>
+  </si>
+  <si>
+    <t>Science for Work</t>
+  </si>
+  <si>
+    <t>9846/01</t>
+  </si>
+  <si>
+    <t>9851/01</t>
+  </si>
+  <si>
+    <t>9751/01</t>
+  </si>
+  <si>
+    <t>9793/01</t>
+  </si>
+  <si>
+    <t>9811/01</t>
+  </si>
+  <si>
+    <t>9996/01</t>
+  </si>
+  <si>
+    <t>9782/01</t>
+  </si>
+  <si>
+    <t>9802/01</t>
+  </si>
+  <si>
+    <t>5569UA0-1</t>
+  </si>
+  <si>
+    <t>5569UB0-1</t>
+  </si>
+  <si>
+    <t>Level 3 Applied</t>
+  </si>
+  <si>
+    <t>D333U10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4463U10-1 </t>
+  </si>
+  <si>
+    <t>4543UA0-1</t>
+  </si>
+  <si>
+    <t>4543UB0-1</t>
+  </si>
+  <si>
+    <t>4543UC0-1</t>
+  </si>
+  <si>
+    <t>4543UD0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4463U60-1 </t>
+  </si>
+  <si>
+    <t>4343U20-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4563UB0-1 </t>
+  </si>
+  <si>
+    <t>4513UA0-1</t>
+  </si>
+  <si>
+    <t>4513UB0-1</t>
+  </si>
+  <si>
+    <t>4473U40-1</t>
+  </si>
+  <si>
+    <t>Mathematics for Work &amp; Life (EDUQAS)</t>
+  </si>
+  <si>
+    <t>Mathematics for Work &amp; Life</t>
+  </si>
+  <si>
+    <t>Medical Science Unit 1 Human Health and Disease</t>
+  </si>
+  <si>
+    <t>Criminology Unit 2: Criminological Theories
+(on screen)</t>
+  </si>
+  <si>
+    <t>Criminology Unit 2: Criminological Theories (on paper)</t>
+  </si>
+  <si>
+    <t>Criminology Unit 4: Crime and Punishment (Diploma only) (on screen)</t>
+  </si>
+  <si>
+    <t>Criminology Unit 4: Crime and Punishment (Diploma only) (on paper)</t>
+  </si>
+  <si>
+    <t>Medical Science Unit 6 Medical Case Study</t>
+  </si>
+  <si>
+    <t>Statistical Problem Solving Using Software Component 2</t>
+  </si>
+  <si>
+    <t>Food Science and Nutrition Unit 1: Meeting Nutritional Needs of Specific Groups</t>
+  </si>
+  <si>
+    <t>Business Unit 1 - The Organisation: Survival &amp; Prosperity (on screen)</t>
+  </si>
+  <si>
+    <t>Business Unit 1 - The Organisation: Survival &amp; Prosperity (on paper</t>
+  </si>
+  <si>
+    <t>Environmental Science Unit 4: Scientific Principles and the Environment</t>
+  </si>
+  <si>
+    <t>Criminology</t>
+  </si>
+  <si>
+    <t>Medical Science</t>
+  </si>
+  <si>
+    <t>Statistical Problem Solving Using Software</t>
+  </si>
+  <si>
+    <t>Food Science and Nutrition</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +1908,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1191,9 +2791,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="283"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="852">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2051,6 +3657,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2375,48 +3989,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J252" sqref="J252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
@@ -2435,602 +4050,6513 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>43228</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>43228</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>43228</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>43229</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>43229</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>43229</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>43229</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>43229</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>43230</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>43230</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>43230</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>43231</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>43231</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>43231</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>43234</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>43234</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>43234</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>43234</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>43234</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>43234</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>43234</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>43234</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>43234</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>43234</v>
       </c>
       <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>43234</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>43234</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="3">
+        <v>43237</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" t="s">
+        <v>198</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="3">
+        <v>43238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" t="s">
+        <v>198</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" t="s">
+        <v>199</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="3">
+        <v>43242</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" t="s">
+        <v>202</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="3">
+        <v>43242</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" t="s">
+        <v>202</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="3">
+        <v>43242</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="3">
+        <v>43242</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="3">
+        <v>43242</v>
+      </c>
+      <c r="C87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="3">
+        <v>43242</v>
+      </c>
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E95" t="s">
+        <v>257</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" t="s">
+        <v>256</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>256</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="3">
+        <v>43243</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E104" t="s">
+        <v>286</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E105" t="s">
+        <v>286</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E106" t="s">
+        <v>286</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E107" t="s">
+        <v>286</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E108" t="s">
+        <v>286</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E111" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" t="s">
+        <v>202</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E119" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J119" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="3">
+        <v>43245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E121" t="s">
+        <v>200</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="3">
+        <v>43255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E122" t="s">
+        <v>319</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J122" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="3">
+        <v>43255</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" t="s">
+        <v>319</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="3">
+        <v>43255</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E124" t="s">
+        <v>320</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="3">
+        <v>43255</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" t="s">
+        <v>321</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E127" t="s">
+        <v>321</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E128" t="s">
+        <v>203</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E129" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C130" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" t="s">
+        <v>203</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" t="s">
+        <v>359</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E132" t="s">
+        <v>359</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E133" t="s">
+        <v>359</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E134" t="s">
+        <v>359</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J134" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E135" t="s">
+        <v>359</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" t="s">
+        <v>359</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E137" t="s">
+        <v>359</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J137" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>64</v>
+      </c>
+      <c r="B138" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E138" t="s">
+        <v>359</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C139" t="s">
+        <v>82</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E139" t="s">
+        <v>350</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E140" t="s">
+        <v>360</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="3">
+        <v>43257</v>
+      </c>
+      <c r="C141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E141" t="s">
+        <v>360</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J141" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E142" t="s">
+        <v>286</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E143" t="s">
+        <v>286</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J143" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J144" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C147" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E147" t="s">
+        <v>258</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C148" t="s">
+        <v>82</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E148" t="s">
+        <v>83</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" s="3">
+        <v>43259</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E149" t="s">
+        <v>321</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" s="3">
+        <v>43259</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E150" t="s">
+        <v>321</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" s="3">
+        <v>43259</v>
+      </c>
+      <c r="C151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E151" t="s">
+        <v>319</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J151" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="3">
+        <v>43259</v>
+      </c>
+      <c r="C152" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E152" t="s">
+        <v>319</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E153" t="s">
+        <v>126</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E154" t="s">
+        <v>126</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B155" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E155" t="s">
+        <v>127</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J155" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E156" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E158" t="s">
+        <v>128</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E159" t="s">
+        <v>128</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E160" t="s">
+        <v>128</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E161" t="s">
+        <v>128</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J161" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>64</v>
+      </c>
+      <c r="B162" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E162" t="s">
+        <v>126</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J162" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E163" t="s">
+        <v>129</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J163" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E164" t="s">
+        <v>129</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J164" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>64</v>
+      </c>
+      <c r="B165" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C165" t="s">
+        <v>82</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E165" t="s">
+        <v>203</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166" s="5">
+        <v>43262</v>
+      </c>
+      <c r="C166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E166" t="s">
+        <v>203</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C167" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E167" t="s">
+        <v>319</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C168" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E168" t="s">
+        <v>319</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E169" t="s">
+        <v>178</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J169" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E170" t="s">
+        <v>178</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>48</v>
+      </c>
+      <c r="B171" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J171" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J172" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J175" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>64</v>
+      </c>
+      <c r="B176" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E176" t="s">
+        <v>178</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J176" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C177" t="s">
+        <v>82</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C178" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" t="s">
+        <v>418</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J178" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>48</v>
+      </c>
+      <c r="B179" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E181" t="s">
+        <v>359</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J181" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>48</v>
+      </c>
+      <c r="B182" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E182" t="s">
+        <v>359</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E183" t="s">
+        <v>359</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J183" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>64</v>
+      </c>
+      <c r="B184" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E184" t="s">
+        <v>359</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C185" t="s">
+        <v>82</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E185" t="s">
+        <v>463</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C186" t="s">
+        <v>82</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E186" t="s">
+        <v>463</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C187" t="s">
+        <v>82</v>
+      </c>
+      <c r="D187" t="s">
+        <v>430</v>
+      </c>
+      <c r="E187" t="s">
+        <v>462</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J187" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>64</v>
+      </c>
+      <c r="B188" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C188" t="s">
+        <v>82</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J188" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>48</v>
+      </c>
+      <c r="B189" s="3">
+        <v>43265</v>
+      </c>
+      <c r="C189" t="s">
+        <v>82</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H189" t="s">
+        <v>451</v>
+      </c>
+      <c r="J189" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>48</v>
+      </c>
+      <c r="B190" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E190" t="s">
+        <v>256</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J190" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>434</v>
+      </c>
+      <c r="E191" t="s">
+        <v>256</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J191" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>435</v>
+      </c>
+      <c r="E192" t="s">
+        <v>127</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J192" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>436</v>
+      </c>
+      <c r="E193" t="s">
+        <v>127</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J193" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>437</v>
+      </c>
+      <c r="E194" t="s">
+        <v>256</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J194" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>64</v>
+      </c>
+      <c r="B195" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>438</v>
+      </c>
+      <c r="E195" t="s">
+        <v>256</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J195" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C196" t="s">
+        <v>82</v>
+      </c>
+      <c r="D196" t="s">
+        <v>439</v>
+      </c>
+      <c r="E196" t="s">
+        <v>420</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" s="3">
+        <v>43266</v>
+      </c>
+      <c r="C197" t="s">
+        <v>82</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H197" t="s">
+        <v>466</v>
+      </c>
+      <c r="J197" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="B198" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J198" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J199" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>48</v>
+      </c>
+      <c r="B200" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J200" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>48</v>
+      </c>
+      <c r="B201" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="J201" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J202" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>64</v>
+      </c>
+      <c r="B203" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J203" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>64</v>
+      </c>
+      <c r="B204" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J204" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>64</v>
+      </c>
+      <c r="B205" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>474</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J205" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" s="3">
+        <v>43269</v>
+      </c>
+      <c r="C206" t="s">
+        <v>82</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J206" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>48</v>
+      </c>
+      <c r="B207" s="3">
+        <v>43270</v>
+      </c>
+      <c r="C207" t="s">
+        <v>82</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J207" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" s="3">
+        <v>43270</v>
+      </c>
+      <c r="C208" t="s">
+        <v>82</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>48</v>
+      </c>
+      <c r="B209" s="3">
+        <v>43271</v>
+      </c>
+      <c r="C209" t="s">
+        <v>82</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" s="3">
+        <v>43272</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J210" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="3">
+        <v>43272</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>484</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>64</v>
+      </c>
+      <c r="B212" s="3">
+        <v>43272</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J212" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>64</v>
+      </c>
+      <c r="B213" s="3">
+        <v>43272</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214" s="3">
+        <v>43171</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>500</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H214" t="s">
+        <v>504</v>
+      </c>
+      <c r="J214" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" s="3">
+        <v>43172</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>501</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J215" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" s="3">
+        <v>43173</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>48</v>
+      </c>
+      <c r="B217" s="3">
+        <v>43175</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J217" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>48</v>
+      </c>
+      <c r="B218" s="3">
+        <v>43234</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J218" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>48</v>
+      </c>
+      <c r="B219" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J219" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>48</v>
+      </c>
+      <c r="B220" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J220" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>48</v>
+      </c>
+      <c r="B221" s="3">
+        <v>43115</v>
+      </c>
+      <c r="C221" t="s">
+        <v>82</v>
+      </c>
+      <c r="D221" t="s">
+        <v>519</v>
+      </c>
+      <c r="E221" t="s">
+        <v>539</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J221" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>48</v>
+      </c>
+      <c r="B222" s="3">
+        <v>43115</v>
+      </c>
+      <c r="C222" t="s">
+        <v>82</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E222" t="s">
+        <v>539</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J222" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>48</v>
+      </c>
+      <c r="B223" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C223" t="s">
+        <v>82</v>
+      </c>
+      <c r="D223" t="s">
+        <v>519</v>
+      </c>
+      <c r="E223" t="s">
+        <v>539</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J223" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C224" t="s">
+        <v>82</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E224" t="s">
+        <v>539</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J224" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>48</v>
+      </c>
+      <c r="B225" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C225" t="s">
+        <v>82</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E225" t="s">
+        <v>538</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J225" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C226" t="s">
+        <v>82</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E226" t="s">
+        <v>538</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J226" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C227" t="s">
+        <v>82</v>
+      </c>
+      <c r="D227" t="s">
+        <v>524</v>
+      </c>
+      <c r="E227" t="s">
+        <v>537</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J227" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>48</v>
+      </c>
+      <c r="B228" s="3">
+        <v>43258</v>
+      </c>
+      <c r="C228" t="s">
+        <v>82</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E228" t="s">
+        <v>537</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J228" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>48</v>
+      </c>
+      <c r="B229" s="3">
+        <v>43270</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J229" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>48</v>
+      </c>
+      <c r="B230" s="3">
+        <v>43110</v>
+      </c>
+      <c r="C230" t="s">
+        <v>82</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>48</v>
+      </c>
+      <c r="B231" s="3">
+        <v>43116</v>
+      </c>
+      <c r="C231" t="s">
+        <v>82</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J231" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>48</v>
+      </c>
+      <c r="B232" s="3">
+        <v>43171</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E232" t="s">
+        <v>555</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J232" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>48</v>
+      </c>
+      <c r="B233" s="3">
+        <v>43255</v>
+      </c>
+      <c r="C233" t="s">
+        <v>82</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E233" t="s">
+        <v>554</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>48</v>
+      </c>
+      <c r="B234" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E234" t="s">
+        <v>553</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J234" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E235" t="s">
+        <v>552</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J235" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>48</v>
+      </c>
+      <c r="B236" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E236" t="s">
+        <v>551</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J236" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>48</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43264</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E237" t="s">
+        <v>550</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J237" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>48</v>
+      </c>
+      <c r="B238" s="3">
+        <v>43270</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E238" t="s">
+        <v>460</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J238" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>48</v>
+      </c>
+      <c r="B239" s="3">
+        <v>43270</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E239" t="s">
+        <v>460</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J239" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>64</v>
+      </c>
+      <c r="B240" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J240" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E241" t="s">
+        <v>594</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J241" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>48</v>
+      </c>
+      <c r="B242" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C242" t="s">
+        <v>82</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E242" t="s">
+        <v>593</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J242" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>48</v>
+      </c>
+      <c r="B243" s="3">
+        <v>43241</v>
+      </c>
+      <c r="C243" t="s">
+        <v>82</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E243" t="s">
+        <v>593</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E244" t="s">
+        <v>593</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J244" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E245" t="s">
+        <v>593</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J245" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E246" t="s">
+        <v>594</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J246" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>48</v>
+      </c>
+      <c r="B247" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J247" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" s="3">
+        <v>43256</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="J248" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>48</v>
+      </c>
+      <c r="B249" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E249" t="s">
+        <v>597</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J249" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>48</v>
+      </c>
+      <c r="B250" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E250" t="s">
+        <v>597</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J250" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>48</v>
+      </c>
+      <c r="B251" s="3">
+        <v>43263</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J251" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3045,31 +10571,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
